--- a/biology/Botanique/Reine_Victoria_(rose)/Reine_Victoria_(rose).xlsx
+++ b/biology/Botanique/Reine_Victoria_(rose)/Reine_Victoria_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Reine Victoria' est un rosier de type Bourbon qui a été créé en 1872 par le rosiériste français Joseph Schwartz. On ne connaît pas ses parents.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Reine Victoria' est un buisson haut d'un à deux mètres, à tiges dressées et feuillage vert pâle. Sa floraison de juin à l'automne, est faite de fleurs en forme de coupe, légèrement odorantes, de couleur rose, de 5 à 6 cm de diamètre[1].
-Ce rosier est très sensible à la maladie des taches noires[2]. On peut l'admirer à la roseraie du clos Barbisier ou à la roseraie du jardin botanique royal de Madrid.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Reine Victoria' est un buisson haut d'un à deux mètres, à tiges dressées et feuillage vert pâle. Sa floraison de juin à l'automne, est faite de fleurs en forme de coupe, légèrement odorantes, de couleur rose, de 5 à 6 cm de diamètre.
+Ce rosier est très sensible à la maladie des taches noires. On peut l'admirer à la roseraie du clos Barbisier ou à la roseraie du jardin botanique royal de Madrid.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Reine Victoria' a donné un sport du nom de 'Madame Pierre Oger' (Oger, 1878) qui diffère par la couleur.
 </t>
